--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2742607.653320498</v>
+        <v>2847546.883495865</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8768985.269793108</v>
+        <v>8785302.71685374</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.84006383513595</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>232.8095520600936</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247721</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>54.1675039769718</v>
+        <v>80.23930645615751</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>4.500195674465881</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>303.5863536752909</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247721</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>7.934688588893149</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>201.4442626624812</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>279.0185618788714</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>171.0483567097093</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>122.9488201391555</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1353,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>174.7756306538736</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>155.1980648094033</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>144.6100405317613</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>73.9322284908373</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>18.4960568543865</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>103.1686991936193</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>15.09910835322342</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>70.38407275859089</v>
       </c>
       <c r="U22" t="n">
-        <v>106.8299898147636</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>216.4795114578124</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>188.583641736433</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>35.63623515385397</v>
+        <v>47.33239976701663</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2798,10 +2800,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2953,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>69.18922512558757</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>70.58974991479204</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722606</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>97.9841306222406</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>166.8182344285497</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>60.25690685266593</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>73.56194264363164</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695514</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922687</v>
+        <v>83.44729448253339</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>65.25773758188545</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695517</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701333</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>100.514050896038</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856541</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012156</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>112.7606860319981</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229311</v>
+        <v>132.1190787273706</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012156</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>78.58522891596036</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.795585684488</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>1993.733315835385</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>1993.733315835385</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>1640.964660565271</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>1267.498902304191</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>846.3061319081667</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>677.4387267498528</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C4" t="n">
-        <v>677.4387267498528</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>527.322087337517</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.594421205412</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X4" t="n">
-        <v>1079.879770723623</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="Y4" t="n">
-        <v>859.0871915800925</v>
+        <v>199.9856847044969</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1513.341883274785</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="C5" t="n">
-        <v>1144.379366334374</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D5" t="n">
-        <v>786.1136677276232</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276232</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>3210.769500939836</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2957.239024213672</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2626.176136870101</v>
+        <v>1922.241597032156</v>
       </c>
       <c r="W5" t="n">
-        <v>2273.407481599987</v>
+        <v>1569.472941762042</v>
       </c>
       <c r="X5" t="n">
-        <v>1899.941723338907</v>
+        <v>1569.472941762042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1899.941723338907</v>
+        <v>1569.472941762042</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>551.6025748766949</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>846.3061319081667</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>469.8823635670449</v>
+        <v>831.7113734044286</v>
       </c>
       <c r="C7" t="n">
-        <v>469.8823635670449</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="D7" t="n">
-        <v>319.7657241547091</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E7" t="n">
-        <v>171.852630572316</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F7" t="n">
-        <v>171.852630572316</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G7" t="n">
-        <v>171.852630572316</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577775</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="W7" t="n">
-        <v>872.3234075408147</v>
+        <v>1013.359838234668</v>
       </c>
       <c r="X7" t="n">
-        <v>872.3234075408147</v>
+        <v>1013.359838234668</v>
       </c>
       <c r="Y7" t="n">
-        <v>651.5308283972846</v>
+        <v>1013.359838234668</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.660964416654</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C8" t="n">
-        <v>1049.698447476243</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>767.8615162854634</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>382.0732636872191</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380157</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993395</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267231</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.03470992366</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653546</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392466</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416654</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>482.8906159540807</v>
+        <v>653.2087215510563</v>
       </c>
       <c r="C10" t="n">
-        <v>313.9544330261738</v>
+        <v>653.2087215510563</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>653.2087215510563</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>505.2956279686632</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>358.4056804707528</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>190.7028438454718</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>703.6831950976108</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="X10" t="n">
-        <v>703.6831950976108</v>
+        <v>874.0013006945865</v>
       </c>
       <c r="Y10" t="n">
-        <v>482.8906159540807</v>
+        <v>653.2087215510563</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5038,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N12" t="n">
-        <v>1336.167399417937</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1888.077129657224</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2311.700279152293</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5257,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5279,19 +5281,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,16 +5311,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D16" t="n">
-        <v>545.3854261579752</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>397.4723325755821</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>250.5823850776717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>250.5823850776717</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2428.280197868759</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2245.425363523663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2245.425363523663</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1956.350136867861</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1701.665648661974</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1412.248478625014</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5595,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>3047.140839595365</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>3047.140839595365</v>
       </c>
       <c r="D19" t="n">
-        <v>240.7066105458822</v>
+        <v>2897.02420018303</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>2749.111106600637</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>2602.221159102726</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>2435.025059817606</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>3449.581883569135</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>3228.789304425605</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5741,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2125.967522499092</v>
       </c>
       <c r="U22" t="n">
-        <v>2052.406834234631</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V22" t="n">
-        <v>1797.722346028744</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991783</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6208,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6306,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3192.420589669523</v>
+        <v>3113.560578231862</v>
       </c>
       <c r="C28" t="n">
-        <v>3023.484406741616</v>
+        <v>2944.624395303955</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>2794.50775589162</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I28" t="n">
         <v>2337.686731866304</v>
@@ -6406,28 +6408,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>4654.836955273488</v>
+        <v>4575.976943835827</v>
       </c>
       <c r="T28" t="n">
-        <v>4435.23549029643</v>
+        <v>4356.375478858768</v>
       </c>
       <c r="U28" t="n">
-        <v>4146.160263640628</v>
+        <v>4067.300252202966</v>
       </c>
       <c r="V28" t="n">
-        <v>3891.475775434741</v>
+        <v>3812.61576399708</v>
       </c>
       <c r="W28" t="n">
-        <v>3602.05860539778</v>
+        <v>3523.198593960119</v>
       </c>
       <c r="X28" t="n">
-        <v>3374.069054499763</v>
+        <v>3295.209043062102</v>
       </c>
       <c r="Y28" t="n">
-        <v>3374.069054499763</v>
+        <v>3295.209043062102</v>
       </c>
     </row>
     <row r="29">
@@ -6446,7 +6448,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6458,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6546,16 +6548,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3262.308695856985</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>3093.372512929078</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4471.231687421535</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>4182.156460765733</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>4182.156460765733</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>3892.739290728772</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>3664.749739830755</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>3443.957160687225</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6710,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6767,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.8431516380886</v>
+        <v>2945.341332862259</v>
       </c>
       <c r="C34" t="n">
-        <v>572.9069687101817</v>
+        <v>2776.405149934352</v>
       </c>
       <c r="D34" t="n">
-        <v>422.7903292978459</v>
+        <v>2626.288510522017</v>
       </c>
       <c r="E34" t="n">
-        <v>274.8772357154528</v>
+        <v>2626.288510522017</v>
       </c>
       <c r="F34" t="n">
-        <v>274.8772357154528</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="G34" t="n">
-        <v>274.8772357154528</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797183</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>4119.873585976894</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>3865.189097771007</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>3575.771927734047</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>3347.782376836029</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>3126.989797692499</v>
       </c>
     </row>
     <row r="35">
@@ -6932,10 +6934,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075813</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1540.888753373307</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7129,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797183</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191924</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>3060.83890577277</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349511</v>
+        <v>3658.217393399322</v>
       </c>
       <c r="N39" t="n">
-        <v>1550.665004989558</v>
+        <v>4230.570347950413</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.574735228845</v>
+        <v>4230.570347950413</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3200.825397924054</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C40" t="n">
-        <v>3031.889214996148</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D40" t="n">
-        <v>2881.772575583812</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="E40" t="n">
-        <v>2733.859482001419</v>
+        <v>548.795341502774</v>
       </c>
       <c r="F40" t="n">
-        <v>2586.969534503509</v>
+        <v>401.9053940048636</v>
       </c>
       <c r="G40" t="n">
-        <v>2419.773435218389</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218389</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822165</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998105</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.02030972914</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671692</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305899</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>4375.01570765753</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>4085.940481001728</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>3831.255992795841</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>3831.255992795841</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>3603.266441897824</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>3382.473862754294</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="41">
@@ -7391,31 +7393,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7427,31 +7429,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273898</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273898</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684976</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1031.260321675051</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356187</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232831</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408901</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429798</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648821</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>1433.701365648821</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y43" t="n">
-        <v>1212.908786505291</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="44">
@@ -7631,25 +7633,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,31 +7666,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191923</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349509</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061502</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
-        <v>1520.445529061502</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O45" t="n">
-        <v>2072.355259300789</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3118.738694571962</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C46" t="n">
-        <v>2949.802511644055</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D46" t="n">
-        <v>2799.68587223172</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E46" t="n">
-        <v>2651.772778649327</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F46" t="n">
-        <v>2504.882831151417</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2337.686731866297</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866297</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866297</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296621</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822159</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998099</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729134</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389148</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098133</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671692</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398592</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4440.932614305899</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4151.857387650097</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3897.17289944421</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3607.755729407249</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3379.766178509232</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3300.387159402202</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,10 +8063,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>255.8421700460947</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,19 +8291,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>129.7511347056857</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>12.04875628922451</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4.005432486451014</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>66.36248435538658</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>47.87918985573519</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>45.44677382459308</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>125.1956044930005</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>147.0213775686974</v>
       </c>
       <c r="U22" t="n">
-        <v>179.3544845744806</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>69.70496293143174</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>37.12601365260417</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>145.3900508477906</v>
+        <v>133.693886234628</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>79.42624789262479</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>75.84421273177713</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>42.31058222398329</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>119.3662399606945</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>212.9610556929593</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>82.07684380973545</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>152.1477127454027</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>66.73277020258969</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>112.9489693570391</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>13.30196929556061</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>139.9994244361343</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>768002.8526346347</v>
+        <v>776321.5511361338</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>768002.8526346347</v>
+        <v>776321.5511361338</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755149.8202234281</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234283</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755149.8202234281</v>
+        <v>755149.8202234283</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234283</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755149.8202234283</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755149.8202234283</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755149.8202234281</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755149.8202234283</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755149.8202234283</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.9447442547</v>
       </c>
-      <c r="K2" t="n">
-        <v>665895.9447442546</v>
-      </c>
       <c r="L2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="O2" t="n">
-        <v>665895.9447442549</v>
-      </c>
       <c r="P2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26378,25 +26380,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355118</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.23512810789</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.23512810789</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.2351281078</v>
+        <v>88524.23512810792</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9337.200356756544</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="O4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="F4" t="n">
-        <v>9337.20035675663</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756621</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9337.200356756701</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9337.200356756763</v>
-      </c>
       <c r="P4" t="n">
-        <v>9337.200356756832</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-847843.46127906</v>
+        <v>-667056.3695698327</v>
       </c>
       <c r="C6" t="n">
-        <v>480901.2844485326</v>
+        <v>447695.4140060865</v>
       </c>
       <c r="D6" t="n">
-        <v>480901.2844485324</v>
+        <v>288274.1440081944</v>
       </c>
       <c r="E6" t="n">
-        <v>230023.752756236</v>
+        <v>230023.7527562359</v>
       </c>
       <c r="F6" t="n">
+        <v>555436.2145635913</v>
+      </c>
+      <c r="G6" t="n">
         <v>555436.2145635914</v>
       </c>
-      <c r="G6" t="n">
-        <v>555436.2145635911</v>
-      </c>
       <c r="H6" t="n">
-        <v>555436.2145635911</v>
+        <v>555436.2145635912</v>
       </c>
       <c r="I6" t="n">
         <v>555436.2145635913</v>
       </c>
       <c r="J6" t="n">
-        <v>337905.0121663135</v>
+        <v>387831.0367536089</v>
       </c>
       <c r="K6" t="n">
-        <v>555436.2145635909</v>
+        <v>555436.2145635911</v>
       </c>
       <c r="L6" t="n">
-        <v>555436.2145635914</v>
+        <v>507142.2445554004</v>
       </c>
       <c r="M6" t="n">
-        <v>470381.1866280794</v>
+        <v>470381.1866280793</v>
       </c>
       <c r="N6" t="n">
-        <v>555436.2145635911</v>
+        <v>555436.2145635913</v>
       </c>
       <c r="O6" t="n">
-        <v>555436.2145635911</v>
+        <v>555436.2145635912</v>
       </c>
       <c r="P6" t="n">
-        <v>555436.2145635914</v>
+        <v>555436.2145635912</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.022529435979809e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362.8937778283446</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>18.23569806836844</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>171.5421514120654</v>
+        <v>145.4703489328796</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>199.4177744651543</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>24.16590479484404</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>136.8203263254276</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>85.07873567410982</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>75.66447974181159</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>198.6827439687597</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>21.8061947751653</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>111.7473676827174</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.004823810364605e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>346.7710205055862</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>246.9596973201446</v>
+        <v>583.0802355498158</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>362.5355639238077</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,28 +33028,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>353.2560498238277</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,7 +33268,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>362.8934092184361</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,7 +33280,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,13 +33654,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>615.038144437878</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33980,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>709.4760096096874</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>353.3934907042774</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34207,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M42" t="n">
-        <v>697.0656272790907</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34444,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>346.9084613860373</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>316.3386309491705</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>206.7892464195647</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q18" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>108.4053175402704</v>
+        <v>444.5258557699416</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>222.5537898377862</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>213.2742757378062</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>224.339029438562</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,7 +36928,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37078,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193501</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>472.9041105158597</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367757</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37628,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>578.1342975263541</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>219.4190832899471</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462686</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M42" t="n">
-        <v>554.9315933570723</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>212.934053971707</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899134</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2847546.883495865</v>
+        <v>2843451.241991099</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,10 +667,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>259.6580847920594</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>232.8095520600936</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>74.60053338946717</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>80.23930645615751</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>252.9907820666609</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>303.5863536752909</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>156.366666237415</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,7 +1071,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>201.4442626624812</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>324.482353263935</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>171.0483567097093</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1308,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>122.9488201391555</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>72.89138480951671</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>144.6100405317613</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>33.58398714687265</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.4960568543865</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>15.09910835322342</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>70.38407275859089</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>188.583641736433</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>47.33239976701663</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>70.58974991479204</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>166.8182344285497</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>73.56194264363164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>83.44729448253339</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>112.7606860319981</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>132.1190787273706</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1267.498902304191</v>
+        <v>1059.365742829029</v>
       </c>
       <c r="C2" t="n">
-        <v>898.5363853637798</v>
+        <v>690.403225888617</v>
       </c>
       <c r="D2" t="n">
-        <v>540.2706867570294</v>
+        <v>332.1375272818665</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4348,34 +4348,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.733315835385</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.733315835385</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.964660565271</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.498902304191</v>
+        <v>1836.104914868962</v>
       </c>
       <c r="Y2" t="n">
-        <v>1267.498902304191</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>846.3061319081667</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1468.399656105704</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1800.470091281866</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.9856847044969</v>
+        <v>908.4431888110456</v>
       </c>
       <c r="C4" t="n">
-        <v>199.9856847044969</v>
+        <v>739.5070058831387</v>
       </c>
       <c r="D4" t="n">
-        <v>199.9856847044969</v>
+        <v>589.390366470803</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>441.4772728884099</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>294.5873253904995</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>126.6008606987781</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426267</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056661</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="X4" t="n">
-        <v>199.9856847044969</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="Y4" t="n">
-        <v>199.9856847044969</v>
+        <v>1090.091653641285</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1182.87310169792</v>
+        <v>1092.930574522034</v>
       </c>
       <c r="C5" t="n">
-        <v>813.9105847575083</v>
+        <v>1092.930574522034</v>
       </c>
       <c r="D5" t="n">
-        <v>455.6448861507579</v>
+        <v>1092.930574522034</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251364</v>
+        <v>1092.930574522034</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V5" t="n">
-        <v>1922.241597032156</v>
+        <v>1852.996172847236</v>
       </c>
       <c r="W5" t="n">
-        <v>1569.472941762042</v>
+        <v>1852.996172847236</v>
       </c>
       <c r="X5" t="n">
-        <v>1569.472941762042</v>
+        <v>1479.530414586156</v>
       </c>
       <c r="Y5" t="n">
-        <v>1569.472941762042</v>
+        <v>1479.530414586156</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>551.6025748766949</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>846.3061319081667</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>831.7113734044286</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>662.7751904765217</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765217</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941286</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U7" t="n">
-        <v>1216.838891429094</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V7" t="n">
-        <v>1216.838891429094</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="W7" t="n">
-        <v>1013.359838234668</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="X7" t="n">
-        <v>1013.359838234668</v>
+        <v>1211.827821336341</v>
       </c>
       <c r="Y7" t="n">
-        <v>1013.359838234668</v>
+        <v>991.0352421928111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2689.770379977556</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>2689.770379977556</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>653.2087215510563</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C10" t="n">
-        <v>653.2087215510563</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>653.2087215510563</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>505.2956279686632</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>358.4056804707528</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>190.7028438454718</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1853.666886664739</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1598.982398458852</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.990851592604</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="X10" t="n">
-        <v>874.0013006945865</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y10" t="n">
-        <v>653.2087215510563</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="11">
@@ -5032,7 +5032,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5047,16 +5047,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5126,22 +5126,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C13" t="n">
-        <v>696.7084350851671</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2413.039864239985</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2230.185029894889</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2010.58356491783</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168622</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5311,7 +5311,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5366,19 +5366,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8178837532264</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.280197868759</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.425363523663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2245.425363523663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.350136867861</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V16" t="n">
-        <v>1701.665648661974</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1412.248478625014</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.258927726996</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.4663485834661</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5509,40 +5509,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3047.140839595365</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C19" t="n">
-        <v>3047.140839595365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D19" t="n">
-        <v>2897.02420018303</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>2749.111106600637</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>2602.221159102726</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>2435.025059817606</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2423.619666148774</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2240.764831803678</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328841</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U19" t="n">
-        <v>3932.255922673039</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V19" t="n">
-        <v>3677.571434467152</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W19" t="n">
-        <v>3677.571434467152</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X19" t="n">
-        <v>3449.581883569135</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y19" t="n">
-        <v>3228.789304425605</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,7 +5764,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>867.8220324314346</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2125.967522499092</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>551.354624631591</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>382.4184417036842</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>382.4184417036842</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>953.7956686053609</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>733.0030894618308</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3113.560578231862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2944.624395303955</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2794.50775589162</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4575.976943835827</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4356.375478858768</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4067.300252202966</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3812.61576399708</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3523.198593960119</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3295.209043062102</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3295.209043062102</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D31" t="n">
-        <v>414.4022433768874</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="32">
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6785,22 +6785,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2945.341332862259</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2776.405149934352</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2626.288510522017</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2626.288510522017</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2479.398563024106</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4119.873585976894</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3865.189097771007</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3575.771927734047</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3347.782376836029</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3126.989797692499</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6940,7 +6940,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7019,19 +7019,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W37" t="n">
-        <v>1359.396373079494</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>2565.513299557012</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>3060.83890577277</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M39" t="n">
-        <v>3658.217393399322</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N39" t="n">
-        <v>4230.570347950413</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>4230.570347950413</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>4654.193497445481</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>696.7084350851671</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>696.7084350851671</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>548.795341502774</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>401.9053940048636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1319.459739407057</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>916.2946447138411</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>766.1780053015053</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>618.2649117191122</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7851,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>255.8421700460947</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>129.7511347056857</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>4.005432486451014</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>32.79125956324904</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.87918985573519</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>125.1956044930005</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>43.26526345294994</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>147.0213775686974</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>37.12601365260417</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.693886234628</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>75.84421273177713</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>119.3662399606945</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>212.9610556929593</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>82.07684380973545</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>112.9489693570391</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>13.30196929556061</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>755149.8202234283</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755149.8202234283</v>
+        <v>755149.820223428</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>755149.8202234283</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755149.8202234281</v>
+        <v>755149.8202234283</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755149.8202234281</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>755149.8202234283</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="G2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="F2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
         <v>665895.9447442547</v>
@@ -26346,10 +26346,10 @@
         <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442545</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442548</v>
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.218023548783847e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,34 +26423,34 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810792</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756544</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>9337.200356756592</v>
@@ -26459,7 +26459,7 @@
         <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-667056.3695698327</v>
+        <v>-667056.3695698329</v>
       </c>
       <c r="C6" t="n">
         <v>447695.4140060865</v>
@@ -26530,40 +26530,40 @@
         <v>288274.1440081944</v>
       </c>
       <c r="E6" t="n">
-        <v>230023.7527562359</v>
+        <v>229676.373501879</v>
       </c>
       <c r="F6" t="n">
-        <v>555436.2145635913</v>
+        <v>555088.8353092344</v>
       </c>
       <c r="G6" t="n">
-        <v>555436.2145635914</v>
+        <v>555088.8353092342</v>
       </c>
       <c r="H6" t="n">
-        <v>555436.2145635912</v>
+        <v>555088.8353092342</v>
       </c>
       <c r="I6" t="n">
-        <v>555436.2145635913</v>
+        <v>555088.8353092342</v>
       </c>
       <c r="J6" t="n">
-        <v>387831.0367536089</v>
+        <v>387483.6574992518</v>
       </c>
       <c r="K6" t="n">
-        <v>555436.2145635911</v>
+        <v>555088.8353092341</v>
       </c>
       <c r="L6" t="n">
-        <v>507142.2445554004</v>
+        <v>506794.8653010434</v>
       </c>
       <c r="M6" t="n">
-        <v>470381.1866280793</v>
+        <v>470033.8073737223</v>
       </c>
       <c r="N6" t="n">
-        <v>555436.2145635913</v>
+        <v>555088.8353092339</v>
       </c>
       <c r="O6" t="n">
-        <v>555436.2145635912</v>
+        <v>555088.8353092342</v>
       </c>
       <c r="P6" t="n">
-        <v>555436.2145635912</v>
+        <v>555088.8353092342</v>
       </c>
     </row>
   </sheetData>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.022529435979809e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.022529435979809e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.022529435979809e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>122.2722852802024</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>18.23569806836844</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>72.65097576566167</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>145.4703489328796</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>153.8852636750505</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>24.16590479484404</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>23.46531394452228</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27827,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>85.07873567410982</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>82.39369247777648</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>198.6827439687597</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>21.8061947751653</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>213.3204533960962</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.004823810364605e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31846,25 +31846,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>499.3768644016574</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32086,22 +32086,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>583.0802355498158</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>362.5355639238077</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.2560498238277</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>198.5607970756955</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33660,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>709.4760096096874</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,25 +34216,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>508.374771698973</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>553.5225306839449</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>443.0068759113678</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>316.3386309491705</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>368.035152318324</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>444.5258557699416</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>222.5537898377862</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>213.2742757378062</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>224.339029438562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>55.96455263125101</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>578.1342975263541</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>369.8203919190988</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2843451.241991099</v>
+        <v>2845211.772293887</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>259.6580847920594</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.8165095851517981</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>74.60053338946717</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>52.82878964426911</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>252.9907820666609</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>380.9608087170972</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>156.366666237415</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>67.67497611159951</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>324.482353263935</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>212.2140719095444</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991755</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>72.89138480951671</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>33.58398714687265</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1660,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>23.10998325717174</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>4.019807611472247</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>35.41770597126702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410136</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>12.74007641194068</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1059.365742829029</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="C2" t="n">
-        <v>690.403225888617</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D2" t="n">
-        <v>332.1375272818665</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251367</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>62.9111328033102</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4348,34 +4348,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400156</v>
+        <v>2561.514571243436</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400156</v>
+        <v>2307.933510507616</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400156</v>
+        <v>1976.870623164045</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130042</v>
+        <v>1624.101967893931</v>
       </c>
       <c r="X2" t="n">
-        <v>1836.104914868962</v>
+        <v>1250.636209632851</v>
       </c>
       <c r="Y2" t="n">
-        <v>1445.96558289315</v>
+        <v>860.4968776570395</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370162</v>
+        <v>143.6627691908465</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L3" t="n">
-        <v>717.852508549538</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105704</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O3" t="n">
-        <v>1800.470091281866</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.04689843412</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>908.4431888110456</v>
+        <v>981.8280128167644</v>
       </c>
       <c r="C4" t="n">
-        <v>739.5070058831387</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="D4" t="n">
-        <v>589.390366470803</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E4" t="n">
-        <v>441.4772728884099</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F4" t="n">
-        <v>294.5873253904995</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G4" t="n">
-        <v>126.6008606987781</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4497,7 +4497,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1583.083706292407</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1386.454958452269</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1163.476477647004</v>
       </c>
       <c r="U4" t="n">
-        <v>1310.884232784815</v>
+        <v>1163.476477647004</v>
       </c>
       <c r="V4" t="n">
-        <v>1310.884232784815</v>
+        <v>1163.476477647004</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.884232784815</v>
+        <v>1163.476477647004</v>
       </c>
       <c r="X4" t="n">
-        <v>1310.884232784815</v>
+        <v>1163.476477647004</v>
       </c>
       <c r="Y4" t="n">
-        <v>1090.091653641285</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1092.930574522034</v>
+        <v>1591.095540256643</v>
       </c>
       <c r="C5" t="n">
-        <v>1092.930574522034</v>
+        <v>1591.095540256643</v>
       </c>
       <c r="D5" t="n">
-        <v>1092.930574522034</v>
+        <v>1232.829841649893</v>
       </c>
       <c r="E5" t="n">
-        <v>1092.930574522034</v>
+        <v>847.0415890516483</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>436.0556842620408</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764998</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190807</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847236</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W5" t="n">
-        <v>1852.996172847236</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="X5" t="n">
-        <v>1479.530414586156</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="Y5" t="n">
-        <v>1479.530414586156</v>
+        <v>1977.695380320765</v>
       </c>
     </row>
     <row r="6">
@@ -4622,31 +4622,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
         <v>614.5430248380223</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>751.3310369968233</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>582.3948540689164</v>
       </c>
       <c r="D7" t="n">
         <v>514.036292340028</v>
@@ -4716,16 +4716,16 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1439.817372234359</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1439.817372234359</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X7" t="n">
-        <v>1211.827821336341</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y7" t="n">
-        <v>991.0352421928111</v>
+        <v>932.979501827063</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1517.887535471216</v>
+        <v>1517.887535471217</v>
       </c>
       <c r="C8" t="n">
-        <v>1148.925018530804</v>
+        <v>1148.925018530805</v>
       </c>
       <c r="D8" t="n">
-        <v>1148.925018530804</v>
+        <v>1148.925018530805</v>
       </c>
       <c r="E8" t="n">
-        <v>1148.925018530804</v>
+        <v>1148.925018530805</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>737.9391137411974</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>322.8666635861939</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,16 +4804,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4828,13 +4828,13 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
         <v>2961.784676410103</v>
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>679.1346335501037</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1853.666886664739</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1598.982398458852</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1309.565228421891</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X10" t="n">
-        <v>1081.575677523874</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>860.7830983803434</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="11">
@@ -5032,16 +5032,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5050,10 +5050,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6605733532803</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2413.039864239985</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2230.185029894889</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2010.58356491783</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1721.508338262028</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.508338262028</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.091168225067</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.10161732705</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.30903818352</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5506,22 +5506,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5533,16 +5533,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>557.5558870561822</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282753</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
         <v>388.6197041282753</v>
@@ -5661,16 +5661,16 @@
         <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2423.619666148774</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2240.764831803678</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>2021.163366826619</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1732.088140170817</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.40365196493</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1187.986481927969</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>959.9969310299521</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.2043518864219</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5749,31 +5749,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6214,58 +6214,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591808</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2442.902671851501</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2260.047837506405</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2040.446372529346</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6837,16 +6837,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,37 +6858,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
         <v>1746.193029533436</v>
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.9786782557277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1902.510931370362</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1647.826443164475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1358.409273127515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1130.419722229497</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>909.6271430859674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,16 +7250,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M39" t="n">
         <v>842.6091804069456</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>113.9333885650331</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>30.36925650589403</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>193.3273467878354</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-3.530613443644091e-13</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>32.79125956324904</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>43.26526345294994</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>62.35543909864944</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>133.6938862346285</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>755149.820223428</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>755149.8202234283</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>755149.8202234281</v>
+        <v>755149.8202234283</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755149.8202234281</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>755149.8202234282</v>
+        <v>755149.8202234281</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>755149.8202234281</v>
+        <v>755149.8202234282</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442557</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="J2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="K2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="L2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442545</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810786</v>
+        <v>88524.23512810783</v>
       </c>
       <c r="E4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
         <v>9337.20035675659</v>
@@ -26438,25 +26438,25 @@
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756552</v>
       </c>
       <c r="K4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
+        <v>9337.20035675655</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="M4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
         <v>9337.20035675659</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984473</v>
@@ -26530,40 +26530,40 @@
         <v>288274.1440081944</v>
       </c>
       <c r="E6" t="n">
-        <v>229676.373501879</v>
+        <v>229989.0148308006</v>
       </c>
       <c r="F6" t="n">
-        <v>555088.8353092344</v>
+        <v>555401.4766381553</v>
       </c>
       <c r="G6" t="n">
-        <v>555088.8353092342</v>
+        <v>555401.4766381555</v>
       </c>
       <c r="H6" t="n">
-        <v>555088.8353092342</v>
+        <v>555401.4766381563</v>
       </c>
       <c r="I6" t="n">
-        <v>555088.8353092342</v>
+        <v>555401.4766381558</v>
       </c>
       <c r="J6" t="n">
-        <v>387483.6574992518</v>
+        <v>387796.298828173</v>
       </c>
       <c r="K6" t="n">
-        <v>555088.8353092341</v>
+        <v>555401.4766381558</v>
       </c>
       <c r="L6" t="n">
-        <v>506794.8653010434</v>
+        <v>507107.5066299649</v>
       </c>
       <c r="M6" t="n">
-        <v>470033.8073737223</v>
+        <v>470346.4487026439</v>
       </c>
       <c r="N6" t="n">
-        <v>555088.8353092339</v>
+        <v>555401.4766381559</v>
       </c>
       <c r="O6" t="n">
-        <v>555088.8353092342</v>
+        <v>555401.4766381559</v>
       </c>
       <c r="P6" t="n">
-        <v>555088.8353092342</v>
+        <v>555401.4766381556</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26810,10 +26810,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>122.2722852802024</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>205.8416753950819</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>72.65097576566167</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>48.7287827753045</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>153.8852636750505</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>30.58689405585676</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.46531394452228</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>80.94049690661285</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>82.39369247777648</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>82.39369247777609</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>94.35543628911067</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>213.3204533960962</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29340,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-5.16541611216363e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31995,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33982,31 +33982,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>601.0567753070492</v>
+        <v>601.0567753070487</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>93.34947739681148</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34795,13 +34795,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0068759113678</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>469.7150632237159</v>
+        <v>469.7150632237154</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
